--- a/public/data/data_pasien.xlsx
+++ b/public/data/data_pasien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trisnanugraha/Desktop/fuzzy-app/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C42456-A817-EE4C-88C9-FFB646100C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC3DC4-62B8-2C46-B202-0E9478A0E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25440" windowHeight="14300" xr2:uid="{A7D264FF-E6B2-3145-AC1F-1A848E47D258}"/>
   </bookViews>
@@ -47,18 +47,12 @@
     <t>Usia</t>
   </si>
   <si>
-    <t>Tekanan Darah</t>
-  </si>
-  <si>
     <t>Kolesterol</t>
   </si>
   <si>
     <t>BMI</t>
   </si>
   <si>
-    <t>Riwayat Merokok</t>
-  </si>
-  <si>
     <t>110/80</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>160cm, 75kg: BMI = 28.34</t>
+  </si>
+  <si>
+    <t>TekananDarah</t>
+  </si>
+  <si>
+    <t>Merokok</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,10 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AA852C-4E51-3D41-B1E7-1A41C4EE559E}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,155 +675,155 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50.34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55.64</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>50.34</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51.64</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>55.64</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>48.34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>48.04</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60.34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60.64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>51.64</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>48.34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>48.04</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>60.34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>60.64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -838,13 +835,13 @@
         <v>62.34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -858,13 +855,13 @@
         <v>48.34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -878,13 +875,13 @@
         <v>54.64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -898,13 +895,13 @@
         <v>62.34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -918,13 +915,13 @@
         <v>51.64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -938,13 +935,13 @@
         <v>40.64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -958,13 +955,13 @@
         <v>54.64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -978,13 +975,13 @@
         <v>40.04</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -998,13 +995,13 @@
         <v>45.73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1018,13 +1015,13 @@
         <v>58.11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1038,13 +1035,13 @@
         <v>45.64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1058,13 +1055,13 @@
         <v>48.03</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1078,13 +1075,13 @@
         <v>59.64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1098,13 +1095,13 @@
         <v>54.34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1118,13 +1115,13 @@
         <v>58.64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1138,13 +1135,13 @@
         <v>63.34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1158,13 +1155,13 @@
         <v>64.11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1178,13 +1175,13 @@
         <v>45.34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1198,13 +1195,13 @@
         <v>39.64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1218,13 +1215,13 @@
         <v>53.84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1238,13 +1235,13 @@
         <v>49.84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1258,13 +1255,13 @@
         <v>40.04</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1278,13 +1275,13 @@
         <v>57.64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1298,13 +1295,13 @@
         <v>50.26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1318,13 +1315,13 @@
         <v>63.64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1338,13 +1335,13 @@
         <v>40.04</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1358,13 +1355,13 @@
         <v>56.64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1378,13 +1375,13 @@
         <v>60.34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1398,13 +1395,13 @@
         <v>55.84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1418,13 +1415,13 @@
         <v>50.34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1438,13 +1435,13 @@
         <v>49.34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1458,13 +1455,13 @@
         <v>64.34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -1478,13 +1475,13 @@
         <v>49.84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1498,13 +1495,13 @@
         <v>54.64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1518,13 +1515,13 @@
         <v>50.34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1538,13 +1535,13 @@
         <v>58.91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1558,13 +1555,13 @@
         <v>56.34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1578,13 +1575,13 @@
         <v>54.34</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1598,13 +1595,13 @@
         <v>48.04</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1618,13 +1615,13 @@
         <v>50.04</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1638,13 +1635,13 @@
         <v>50.84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1658,13 +1655,13 @@
         <v>46.34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1678,13 +1675,13 @@
         <v>44.34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1698,13 +1695,13 @@
         <v>50.34</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>

--- a/public/data/data_pasien.xlsx
+++ b/public/data/data_pasien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trisnanugraha/Desktop/fuzzy-app/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC3DC4-62B8-2C46-B202-0E9478A0E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC21332-C64C-FC49-845D-03D2162E136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25440" windowHeight="14300" xr2:uid="{A7D264FF-E6B2-3145-AC1F-1A848E47D258}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Merokok</t>
+  </si>
+  <si>
+    <t>50/34</t>
   </si>
 </sst>
 </file>
@@ -653,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AA852C-4E51-3D41-B1E7-1A41C4EE559E}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1707,13 +1710,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
